--- a/Data/ROY Data/rookies_13_14.xlsx
+++ b/Data/ROY Data/rookies_13_14.xlsx
@@ -990,76 +990,73 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="H2">
-        <v>14091</v>
+        <v>1197</v>
       </c>
       <c r="I2">
-        <v>2136</v>
+        <v>93</v>
       </c>
       <c r="J2">
-        <v>3629</v>
+        <v>185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>867</v>
+        <v>79</v>
       </c>
       <c r="N2">
-        <v>1555</v>
+        <v>136</v>
       </c>
       <c r="O2">
-        <v>1812</v>
+        <v>142</v>
       </c>
       <c r="P2">
-        <v>3989</v>
+        <v>332</v>
       </c>
       <c r="Q2">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="R2">
-        <v>468</v>
+        <v>40</v>
       </c>
       <c r="S2">
-        <v>529</v>
+        <v>57</v>
       </c>
       <c r="T2">
-        <v>749</v>
+        <v>71</v>
       </c>
       <c r="U2">
-        <v>1373</v>
+        <v>203</v>
       </c>
       <c r="V2">
-        <v>5140</v>
+        <v>265</v>
       </c>
       <c r="W2">
-        <v>0.589</v>
-      </c>
-      <c r="X2">
-        <v>0.1</v>
+        <v>0.503</v>
       </c>
       <c r="Y2">
-        <v>0.5580000000000001</v>
+        <v>0.581</v>
       </c>
       <c r="Z2">
-        <v>26.8</v>
+        <v>14.8</v>
       </c>
       <c r="AA2">
-        <v>9.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="AB2">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="AC2">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="s">
         <v>168</v>
@@ -1082,76 +1079,76 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>17015</v>
+        <v>1897</v>
       </c>
       <c r="I3">
-        <v>3825</v>
+        <v>173</v>
       </c>
       <c r="J3">
-        <v>7278</v>
+        <v>418</v>
       </c>
       <c r="K3">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="L3">
-        <v>1068</v>
+        <v>118</v>
       </c>
       <c r="M3">
-        <v>2517</v>
+        <v>138</v>
       </c>
       <c r="N3">
-        <v>3479</v>
+        <v>202</v>
       </c>
       <c r="O3">
-        <v>879</v>
+        <v>78</v>
       </c>
       <c r="P3">
-        <v>4642</v>
+        <v>339</v>
       </c>
       <c r="Q3">
-        <v>2257</v>
+        <v>150</v>
       </c>
       <c r="R3">
-        <v>619</v>
+        <v>60</v>
       </c>
       <c r="S3">
-        <v>685</v>
+        <v>61</v>
       </c>
       <c r="T3">
-        <v>1439</v>
+        <v>122</v>
       </c>
       <c r="U3">
-        <v>1572</v>
+        <v>173</v>
       </c>
       <c r="V3">
-        <v>10471</v>
+        <v>525</v>
       </c>
       <c r="W3">
-        <v>0.526</v>
+        <v>0.414</v>
       </c>
       <c r="X3">
-        <v>0.285</v>
+        <v>0.347</v>
       </c>
       <c r="Y3">
-        <v>0.723</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z3">
-        <v>32.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA3">
-        <v>20</v>
+        <v>6.8</v>
       </c>
       <c r="AB3">
-        <v>8.9</v>
+        <v>4.4</v>
       </c>
       <c r="AC3">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD3" t="s">
         <v>168</v>
@@ -1174,76 +1171,76 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>1962</v>
+        <v>925</v>
       </c>
       <c r="I4">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="J4">
-        <v>590</v>
+        <v>294</v>
       </c>
       <c r="K4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="L4">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="M4">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="O4">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="P4">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="Q4">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="R4">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="T4">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="U4">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="V4">
-        <v>708</v>
+        <v>352</v>
       </c>
       <c r="W4">
-        <v>0.392</v>
+        <v>0.418</v>
       </c>
       <c r="X4">
-        <v>0.314</v>
+        <v>0.327</v>
       </c>
       <c r="Y4">
-        <v>0.73</v>
+        <v>0.758</v>
       </c>
       <c r="Z4">
-        <v>17.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA4">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AC4">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="s">
         <v>168</v>
@@ -1355,76 +1352,76 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="H6">
-        <v>1905</v>
+        <v>663</v>
       </c>
       <c r="I6">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="J6">
-        <v>641</v>
+        <v>225</v>
       </c>
       <c r="K6">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L6">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N6">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="O6">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="P6">
-        <v>472</v>
+        <v>155</v>
       </c>
       <c r="Q6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="R6">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="S6">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="U6">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="V6">
-        <v>658</v>
+        <v>217</v>
       </c>
       <c r="W6">
-        <v>0.392</v>
+        <v>0.356</v>
       </c>
       <c r="X6">
-        <v>0.261</v>
+        <v>0.245</v>
       </c>
       <c r="Y6">
-        <v>0.67</v>
+        <v>0.638</v>
       </c>
       <c r="Z6">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="AA6">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="s">
         <v>168</v>
@@ -1447,76 +1444,76 @@
         <v>21</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
       <c r="H7">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>13</v>
-      </c>
-      <c r="Q7">
-        <v>12</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
       <c r="U7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>0.308</v>
+        <v>0.5</v>
       </c>
       <c r="X7">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="Z7">
-        <v>13.4</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="AB7">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD7" t="s">
         <v>168</v>
@@ -1539,76 +1536,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>1185</v>
+        <v>224</v>
       </c>
       <c r="I8">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="J8">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
         <v>41</v>
       </c>
-      <c r="O8">
-        <v>28</v>
-      </c>
-      <c r="P8">
-        <v>151</v>
-      </c>
-      <c r="Q8">
-        <v>183</v>
-      </c>
       <c r="R8">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="S8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="U8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="V8">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="W8">
-        <v>0.364</v>
+        <v>0.302</v>
       </c>
       <c r="X8">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="Y8">
-        <v>0.707</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="Z8">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA8">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB8">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD8" t="s">
         <v>168</v>
@@ -1631,76 +1628,76 @@
         <v>22</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>395</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>121</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>73</v>
+      </c>
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>301</v>
-      </c>
-      <c r="H9">
-        <v>5924</v>
-      </c>
-      <c r="I9">
-        <v>766</v>
-      </c>
-      <c r="J9">
-        <v>1781</v>
-      </c>
-      <c r="K9">
-        <v>397</v>
-      </c>
-      <c r="L9">
-        <v>1030</v>
-      </c>
-      <c r="M9">
-        <v>161</v>
-      </c>
       <c r="N9">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>631</v>
+        <v>54</v>
       </c>
       <c r="Q9">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="R9">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="U9">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="V9">
-        <v>2090</v>
+        <v>115</v>
       </c>
       <c r="W9">
-        <v>0.43</v>
+        <v>0.355</v>
       </c>
       <c r="X9">
-        <v>0.385</v>
+        <v>0.301</v>
       </c>
       <c r="Y9">
-        <v>0.826</v>
+        <v>0.778</v>
       </c>
       <c r="Z9">
-        <v>19.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA9">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="AB9">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD9" t="s">
         <v>168</v>
@@ -1723,76 +1720,76 @@
         <v>21</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>387</v>
+        <v>70</v>
       </c>
       <c r="H10">
-        <v>8888</v>
+        <v>2262</v>
       </c>
       <c r="I10">
-        <v>1588</v>
+        <v>341</v>
       </c>
       <c r="J10">
-        <v>3866</v>
+        <v>897</v>
       </c>
       <c r="K10">
-        <v>472</v>
+        <v>111</v>
       </c>
       <c r="L10">
-        <v>1364</v>
+        <v>336</v>
       </c>
       <c r="M10">
-        <v>454</v>
+        <v>102</v>
       </c>
       <c r="N10">
-        <v>570</v>
+        <v>113</v>
       </c>
       <c r="O10">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="P10">
-        <v>777</v>
+        <v>208</v>
       </c>
       <c r="Q10">
-        <v>1360</v>
+        <v>396</v>
       </c>
       <c r="R10">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="S10">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>487</v>
+        <v>131</v>
       </c>
       <c r="U10">
-        <v>528</v>
+        <v>145</v>
       </c>
       <c r="V10">
-        <v>4102</v>
+        <v>895</v>
       </c>
       <c r="W10">
-        <v>0.411</v>
+        <v>0.38</v>
       </c>
       <c r="X10">
-        <v>0.346</v>
+        <v>0.33</v>
       </c>
       <c r="Y10">
-        <v>0.796</v>
+        <v>0.903</v>
       </c>
       <c r="Z10">
-        <v>23</v>
+        <v>32.3</v>
       </c>
       <c r="AA10">
-        <v>10.6</v>
+        <v>12.8</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC10">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD10" t="s">
         <v>168</v>
@@ -1815,76 +1812,76 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>696</v>
+        <v>146</v>
       </c>
       <c r="I11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="Q11">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="V11">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="W11">
-        <v>0.402</v>
+        <v>0.313</v>
       </c>
       <c r="X11">
-        <v>0.37</v>
+        <v>0.294</v>
       </c>
       <c r="Y11">
-        <v>0.883</v>
+        <v>0.889</v>
       </c>
       <c r="Z11">
-        <v>14.2</v>
+        <v>10.4</v>
       </c>
       <c r="AA11">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB11">
         <v>1.6</v>
       </c>
       <c r="AC11">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="s">
         <v>168</v>
@@ -1907,76 +1904,76 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="H12">
-        <v>2011</v>
+        <v>1173</v>
       </c>
       <c r="I12">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="J12">
-        <v>558</v>
+        <v>311</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N12">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>137</v>
+      </c>
+      <c r="Q12">
+        <v>207</v>
+      </c>
+      <c r="R12">
+        <v>66</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>101</v>
+      </c>
+      <c r="U12">
         <v>117</v>
       </c>
-      <c r="O12">
-        <v>42</v>
-      </c>
-      <c r="P12">
-        <v>243</v>
-      </c>
-      <c r="Q12">
-        <v>353</v>
-      </c>
-      <c r="R12">
-        <v>129</v>
-      </c>
-      <c r="S12">
-        <v>13</v>
-      </c>
-      <c r="T12">
-        <v>162</v>
-      </c>
-      <c r="U12">
-        <v>217</v>
-      </c>
       <c r="V12">
-        <v>590</v>
+        <v>347</v>
       </c>
       <c r="W12">
-        <v>0.441</v>
+        <v>0.457</v>
       </c>
       <c r="X12">
-        <v>0.288</v>
+        <v>0.311</v>
       </c>
       <c r="Y12">
-        <v>0.581</v>
+        <v>0.611</v>
       </c>
       <c r="Z12">
-        <v>15.6</v>
+        <v>16.5</v>
       </c>
       <c r="AA12">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AB12">
         <v>1.9</v>
       </c>
       <c r="AC12">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD12" t="s">
         <v>168</v>
@@ -1999,76 +1996,76 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>15614</v>
+        <v>1583</v>
       </c>
       <c r="I13">
-        <v>2232</v>
+        <v>182</v>
       </c>
       <c r="J13">
-        <v>5348</v>
+        <v>460</v>
       </c>
       <c r="K13">
-        <v>876</v>
+        <v>59</v>
       </c>
       <c r="L13">
-        <v>2509</v>
+        <v>185</v>
       </c>
       <c r="M13">
-        <v>862</v>
+        <v>47</v>
       </c>
       <c r="N13">
-        <v>1082</v>
+        <v>61</v>
       </c>
       <c r="O13">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="P13">
-        <v>1699</v>
+        <v>156</v>
       </c>
       <c r="Q13">
-        <v>874</v>
+        <v>55</v>
       </c>
       <c r="R13">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="S13">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="T13">
-        <v>531</v>
+        <v>28</v>
       </c>
       <c r="U13">
-        <v>993</v>
+        <v>145</v>
       </c>
       <c r="V13">
-        <v>6202</v>
+        <v>470</v>
       </c>
       <c r="W13">
-        <v>0.417</v>
+        <v>0.396</v>
       </c>
       <c r="X13">
-        <v>0.349</v>
+        <v>0.319</v>
       </c>
       <c r="Y13">
-        <v>0.797</v>
+        <v>0.77</v>
       </c>
       <c r="Z13">
-        <v>29.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA13">
-        <v>11.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB13">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD13" t="s">
         <v>168</v>
@@ -2091,76 +2088,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>4799</v>
+        <v>252</v>
       </c>
       <c r="I14">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>1661</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>1042</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="O14">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>438</v>
+        <v>24</v>
       </c>
       <c r="Q14">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="R14">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="U14">
-        <v>364</v>
+        <v>25</v>
       </c>
       <c r="V14">
-        <v>1913</v>
+        <v>101</v>
       </c>
       <c r="W14">
-        <v>0.371</v>
+        <v>0.356</v>
       </c>
       <c r="X14">
-        <v>0.351</v>
+        <v>0.327</v>
       </c>
       <c r="Y14">
-        <v>0.836</v>
+        <v>0.724</v>
       </c>
       <c r="Z14">
-        <v>20.4</v>
+        <v>11.5</v>
       </c>
       <c r="AA14">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="AB14">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AC14">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="s">
         <v>168</v>
@@ -2183,76 +2180,76 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>358</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>9060</v>
+        <v>2414</v>
       </c>
       <c r="I15">
-        <v>1383</v>
+        <v>427</v>
       </c>
       <c r="J15">
-        <v>3437</v>
+        <v>1054</v>
       </c>
       <c r="K15">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="L15">
-        <v>648</v>
+        <v>208</v>
       </c>
       <c r="M15">
-        <v>802</v>
+        <v>258</v>
       </c>
       <c r="N15">
-        <v>1127</v>
+        <v>367</v>
       </c>
       <c r="O15">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="P15">
-        <v>1568</v>
+        <v>437</v>
       </c>
       <c r="Q15">
-        <v>1567</v>
+        <v>441</v>
       </c>
       <c r="R15">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="S15">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="T15">
-        <v>840</v>
+        <v>247</v>
       </c>
       <c r="U15">
-        <v>875</v>
+        <v>213</v>
       </c>
       <c r="V15">
-        <v>3734</v>
+        <v>1167</v>
       </c>
       <c r="W15">
-        <v>0.402</v>
+        <v>0.405</v>
       </c>
       <c r="X15">
-        <v>0.256</v>
+        <v>0.264</v>
       </c>
       <c r="Y15">
-        <v>0.712</v>
+        <v>0.703</v>
       </c>
       <c r="Z15">
-        <v>25.3</v>
+        <v>34.5</v>
       </c>
       <c r="AA15">
-        <v>10.4</v>
+        <v>16.7</v>
       </c>
       <c r="AB15">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC15">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD15" t="s">
         <v>168</v>
@@ -2367,76 +2364,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>4507</v>
+        <v>172</v>
       </c>
       <c r="I17">
-        <v>718</v>
+        <v>26</v>
       </c>
       <c r="J17">
-        <v>1635</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="L17">
-        <v>705</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="O17">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="Q17">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="R17">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="U17">
-        <v>394</v>
+        <v>24</v>
       </c>
       <c r="V17">
-        <v>1840</v>
+        <v>68</v>
       </c>
       <c r="W17">
-        <v>0.439</v>
+        <v>0.388</v>
       </c>
       <c r="X17">
-        <v>0.34</v>
+        <v>0.355</v>
       </c>
       <c r="Y17">
-        <v>0.804</v>
+        <v>0.714</v>
       </c>
       <c r="Z17">
-        <v>13.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA17">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD17" t="s">
         <v>168</v>
@@ -2459,76 +2456,73 @@
         <v>23</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="G18">
-        <v>389</v>
-      </c>
       <c r="H18">
-        <v>11656</v>
+        <v>34</v>
       </c>
       <c r="I18">
-        <v>1656</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>4074</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>915</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>2559</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>905</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>2210</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>639</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>1190</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>4962</v>
+        <v>16</v>
       </c>
       <c r="W18">
-        <v>0.406</v>
+        <v>0.429</v>
       </c>
       <c r="X18">
-        <v>0.358</v>
-      </c>
-      <c r="Y18">
-        <v>0.8120000000000001</v>
+        <v>0.364</v>
       </c>
       <c r="Z18">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="AA18">
-        <v>12.8</v>
+        <v>2.3</v>
       </c>
       <c r="AB18">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="AC18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="s">
         <v>168</v>
@@ -2551,76 +2545,76 @@
         <v>21</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>9125</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>1226</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>2888</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>617</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>1596</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>462</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1073</v>
+        <v>9</v>
       </c>
       <c r="Q19">
-        <v>434</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>285</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>764</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>3453</v>
+        <v>33</v>
       </c>
       <c r="W19">
-        <v>0.425</v>
+        <v>0.364</v>
       </c>
       <c r="X19">
-        <v>0.387</v>
+        <v>0.429</v>
       </c>
       <c r="Y19">
-        <v>0.831</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>24</v>
+        <v>6.7</v>
       </c>
       <c r="AA19">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB19">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="AC19">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD19" t="s">
         <v>168</v>
@@ -2643,76 +2637,73 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>5612</v>
+        <v>13</v>
       </c>
       <c r="I20">
-        <v>919</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1934</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>989</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>2526</v>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>0.475</v>
+        <v>0.333</v>
       </c>
       <c r="X20">
-        <v>0.442</v>
-      </c>
-      <c r="Y20">
-        <v>0.837</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>22.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AC20">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="s">
         <v>168</v>
@@ -2735,76 +2726,73 @@
         <v>22</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>4970</v>
+        <v>75</v>
       </c>
       <c r="I21">
-        <v>757</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>1887</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>549</v>
+        <v>12</v>
       </c>
       <c r="L21">
-        <v>1385</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>422</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>2206</v>
+        <v>42</v>
       </c>
       <c r="W21">
-        <v>0.401</v>
+        <v>0.484</v>
       </c>
       <c r="X21">
-        <v>0.396</v>
-      </c>
-      <c r="Y21">
-        <v>0.799</v>
+        <v>0.48</v>
       </c>
       <c r="Z21">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="AA21">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AB21">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="s">
         <v>168</v>
@@ -2827,76 +2815,76 @@
         <v>26</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>447</v>
+        <v>238</v>
       </c>
       <c r="I22">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J22">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <v>46</v>
+      </c>
+      <c r="Q22">
         <v>11</v>
       </c>
-      <c r="O22">
-        <v>17</v>
-      </c>
-      <c r="P22">
-        <v>75</v>
-      </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>11</v>
+      </c>
+      <c r="U22">
         <v>20</v>
       </c>
-      <c r="R22">
-        <v>8</v>
-      </c>
-      <c r="S22">
-        <v>8</v>
-      </c>
-      <c r="T22">
-        <v>20</v>
-      </c>
-      <c r="U22">
-        <v>35</v>
-      </c>
       <c r="V22">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="W22">
-        <v>0.414</v>
+        <v>0.351</v>
       </c>
       <c r="X22">
-        <v>0.316</v>
+        <v>0.179</v>
       </c>
       <c r="Y22">
-        <v>0.8179999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="AA22">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="AB22">
         <v>1.4</v>
       </c>
       <c r="AC22">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="s">
         <v>168</v>
@@ -2919,76 +2907,76 @@
         <v>22</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>575</v>
+      </c>
+      <c r="I23">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <v>128</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="G23">
-        <v>78</v>
-      </c>
-      <c r="H23">
-        <v>998</v>
-      </c>
-      <c r="I23">
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>53</v>
+      </c>
+      <c r="O23">
+        <v>38</v>
+      </c>
+      <c r="P23">
         <v>109</v>
       </c>
-      <c r="J23">
-        <v>265</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>44</v>
-      </c>
-      <c r="M23">
-        <v>58</v>
-      </c>
-      <c r="N23">
-        <v>90</v>
-      </c>
-      <c r="O23">
-        <v>76</v>
-      </c>
-      <c r="P23">
-        <v>192</v>
-      </c>
       <c r="Q23">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="R23">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="S23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T23">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="U23">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="V23">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="W23">
-        <v>0.411</v>
+        <v>0.422</v>
       </c>
       <c r="X23">
-        <v>0.227</v>
+        <v>0.2</v>
       </c>
       <c r="Y23">
-        <v>0.644</v>
+        <v>0.642</v>
       </c>
       <c r="Z23">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="AA23">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AB23">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC23">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD23" t="s">
         <v>168</v>
@@ -3011,76 +2999,73 @@
         <v>24</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>390</v>
+      </c>
+      <c r="I24">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>83</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>38</v>
+      </c>
+      <c r="P24">
+        <v>127</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
         <v>7</v>
       </c>
-      <c r="G24">
-        <v>394</v>
-      </c>
-      <c r="H24">
-        <v>7195</v>
-      </c>
-      <c r="I24">
-        <v>1000</v>
-      </c>
-      <c r="J24">
-        <v>1939</v>
-      </c>
-      <c r="K24">
-        <v>155</v>
-      </c>
-      <c r="L24">
-        <v>466</v>
-      </c>
-      <c r="M24">
-        <v>366</v>
-      </c>
-      <c r="N24">
-        <v>500</v>
-      </c>
-      <c r="O24">
-        <v>617</v>
-      </c>
-      <c r="P24">
-        <v>2364</v>
-      </c>
-      <c r="Q24">
-        <v>273</v>
-      </c>
-      <c r="R24">
-        <v>216</v>
-      </c>
       <c r="S24">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="T24">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="U24">
-        <v>1005</v>
+        <v>66</v>
       </c>
       <c r="V24">
-        <v>2521</v>
+        <v>97</v>
       </c>
       <c r="W24">
-        <v>0.516</v>
-      </c>
-      <c r="X24">
-        <v>0.333</v>
+        <v>0.458</v>
       </c>
       <c r="Y24">
-        <v>0.732</v>
+        <v>0.656</v>
       </c>
       <c r="Z24">
-        <v>18.3</v>
+        <v>12.6</v>
       </c>
       <c r="AA24">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="AC24">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" t="s">
         <v>168</v>
@@ -3103,76 +3088,76 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>434</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>8849</v>
+        <v>1271</v>
       </c>
       <c r="I25">
-        <v>863</v>
+        <v>122</v>
       </c>
       <c r="J25">
-        <v>2217</v>
+        <v>296</v>
       </c>
       <c r="K25">
-        <v>396</v>
+        <v>57</v>
       </c>
       <c r="L25">
-        <v>1075</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="N25">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="O25">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="P25">
-        <v>774</v>
+        <v>123</v>
       </c>
       <c r="Q25">
-        <v>1591</v>
+        <v>187</v>
       </c>
       <c r="R25">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="S25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>546</v>
+        <v>60</v>
       </c>
       <c r="U25">
-        <v>824</v>
+        <v>121</v>
       </c>
       <c r="V25">
-        <v>2427</v>
+        <v>339</v>
       </c>
       <c r="W25">
-        <v>0.389</v>
+        <v>0.412</v>
       </c>
       <c r="X25">
         <v>0.368</v>
       </c>
       <c r="Y25">
-        <v>0.838</v>
+        <v>0.792</v>
       </c>
       <c r="Z25">
-        <v>20.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA25">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="AB25">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC25">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="s">
         <v>168</v>
@@ -3195,76 +3180,76 @@
         <v>24</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>510</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>11260</v>
+        <v>818</v>
       </c>
       <c r="I26">
-        <v>1545</v>
+        <v>113</v>
       </c>
       <c r="J26">
-        <v>3087</v>
+        <v>227</v>
       </c>
       <c r="K26">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>819</v>
+        <v>59</v>
       </c>
       <c r="N26">
-        <v>1043</v>
+        <v>93</v>
       </c>
       <c r="O26">
-        <v>945</v>
+        <v>103</v>
       </c>
       <c r="P26">
-        <v>3148</v>
+        <v>300</v>
       </c>
       <c r="Q26">
-        <v>700</v>
+        <v>39</v>
       </c>
       <c r="R26">
-        <v>424</v>
+        <v>30</v>
       </c>
       <c r="S26">
-        <v>503</v>
+        <v>50</v>
       </c>
       <c r="T26">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="U26">
-        <v>1162</v>
+        <v>108</v>
       </c>
       <c r="V26">
-        <v>4022</v>
+        <v>286</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="X26">
-        <v>0.343</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0.785</v>
+        <v>0.634</v>
       </c>
       <c r="Z26">
-        <v>22.1</v>
+        <v>13.6</v>
       </c>
       <c r="AA26">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB26">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="s">
         <v>168</v>
@@ -3557,25 +3542,25 @@
         <v>22</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M30">
         <v>2</v>
@@ -3584,49 +3569,49 @@
         <v>2</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R30">
         <v>4</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V30">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W30">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="X30">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AA30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="s">
         <v>168</v>
@@ -3649,76 +3634,73 @@
         <v>21</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>434</v>
+      </c>
+      <c r="I31">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>74</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>65</v>
+      </c>
+      <c r="O31">
+        <v>51</v>
+      </c>
+      <c r="P31">
+        <v>155</v>
+      </c>
+      <c r="Q31">
         <v>7</v>
       </c>
-      <c r="G31">
-        <v>469</v>
-      </c>
-      <c r="H31">
-        <v>13837</v>
-      </c>
-      <c r="I31">
-        <v>2015</v>
-      </c>
-      <c r="J31">
-        <v>3151</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>1442</v>
-      </c>
-      <c r="N31">
-        <v>2290</v>
-      </c>
-      <c r="O31">
-        <v>1525</v>
-      </c>
-      <c r="P31">
-        <v>5137</v>
-      </c>
-      <c r="Q31">
-        <v>638</v>
-      </c>
       <c r="R31">
-        <v>323</v>
+        <v>8</v>
       </c>
       <c r="S31">
-        <v>1022</v>
+        <v>41</v>
       </c>
       <c r="T31">
-        <v>764</v>
+        <v>32</v>
       </c>
       <c r="U31">
-        <v>1224</v>
+        <v>57</v>
       </c>
       <c r="V31">
-        <v>5472</v>
+        <v>104</v>
       </c>
       <c r="W31">
-        <v>0.639</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="Y31">
-        <v>0.63</v>
+        <v>0.492</v>
       </c>
       <c r="Z31">
-        <v>29.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA31">
-        <v>11.7</v>
+        <v>2.3</v>
       </c>
       <c r="AB31">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="AC31">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="s">
         <v>168</v>
@@ -3741,76 +3723,76 @@
         <v>19</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H32">
-        <v>2396</v>
+        <v>533</v>
       </c>
       <c r="I32">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="J32">
-        <v>856</v>
+        <v>167</v>
       </c>
       <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>55</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>87</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>11</v>
+      </c>
+      <c r="T32">
+        <v>44</v>
+      </c>
+      <c r="U32">
         <v>45</v>
       </c>
-      <c r="L32">
-        <v>191</v>
-      </c>
-      <c r="M32">
-        <v>261</v>
-      </c>
-      <c r="N32">
-        <v>373</v>
-      </c>
-      <c r="O32">
-        <v>86</v>
-      </c>
-      <c r="P32">
-        <v>331</v>
-      </c>
-      <c r="Q32">
-        <v>206</v>
-      </c>
-      <c r="R32">
-        <v>69</v>
-      </c>
-      <c r="S32">
-        <v>38</v>
-      </c>
-      <c r="T32">
-        <v>206</v>
-      </c>
-      <c r="U32">
-        <v>192</v>
-      </c>
       <c r="V32">
-        <v>1040</v>
+        <v>194</v>
       </c>
       <c r="W32">
-        <v>0.429</v>
+        <v>0.455</v>
       </c>
       <c r="X32">
-        <v>0.236</v>
+        <v>0.139</v>
       </c>
       <c r="Y32">
-        <v>0.7</v>
+        <v>0.673</v>
       </c>
       <c r="Z32">
-        <v>14.5</v>
+        <v>10.3</v>
       </c>
       <c r="AA32">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="AB32">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AC32">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD32" t="s">
         <v>168</v>
@@ -3833,76 +3815,76 @@
         <v>25</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>482</v>
+        <v>244</v>
       </c>
       <c r="I33">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="J33">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N33">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="R33">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="U33">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="V33">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
+        <v>0.463</v>
       </c>
       <c r="X33">
-        <v>0.176</v>
+        <v>0.25</v>
       </c>
       <c r="Y33">
-        <v>0.778</v>
+        <v>0.75</v>
       </c>
       <c r="Z33">
-        <v>10.3</v>
+        <v>16.3</v>
       </c>
       <c r="AA33">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="AB33">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AC33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD33" t="s">
         <v>168</v>
@@ -3925,76 +3907,76 @@
         <v>23</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>113</v>
-      </c>
-      <c r="H34">
-        <v>1961</v>
-      </c>
-      <c r="I34">
-        <v>268</v>
-      </c>
-      <c r="J34">
-        <v>577</v>
-      </c>
-      <c r="K34">
-        <v>68</v>
-      </c>
       <c r="L34">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="Q34">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="V34">
-        <v>687</v>
+        <v>26</v>
       </c>
       <c r="W34">
-        <v>0.464</v>
+        <v>0.45</v>
       </c>
       <c r="X34">
-        <v>0.309</v>
+        <v>0.333</v>
       </c>
       <c r="Y34">
-        <v>0.798</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>17.4</v>
+        <v>9</v>
       </c>
       <c r="AA34">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB34">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="s">
         <v>168</v>
@@ -4017,76 +3999,76 @@
         <v>21</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>81</v>
+      </c>
+      <c r="H35">
+        <v>1875</v>
+      </c>
+      <c r="I35">
+        <v>294</v>
+      </c>
+      <c r="J35">
+        <v>687</v>
+      </c>
+      <c r="K35">
+        <v>130</v>
+      </c>
+      <c r="L35">
+        <v>358</v>
+      </c>
+      <c r="M35">
+        <v>106</v>
+      </c>
+      <c r="N35">
+        <v>128</v>
+      </c>
+      <c r="O35">
+        <v>19</v>
+      </c>
+      <c r="P35">
+        <v>121</v>
+      </c>
+      <c r="Q35">
+        <v>66</v>
+      </c>
+      <c r="R35">
+        <v>44</v>
+      </c>
+      <c r="S35">
         <v>7</v>
       </c>
-      <c r="G35">
-        <v>467</v>
-      </c>
-      <c r="H35">
-        <v>12372</v>
-      </c>
-      <c r="I35">
-        <v>2204</v>
-      </c>
-      <c r="J35">
-        <v>5234</v>
-      </c>
-      <c r="K35">
-        <v>930</v>
-      </c>
-      <c r="L35">
-        <v>2621</v>
-      </c>
-      <c r="M35">
-        <v>951</v>
-      </c>
-      <c r="N35">
-        <v>1167</v>
-      </c>
-      <c r="O35">
-        <v>161</v>
-      </c>
-      <c r="P35">
-        <v>1236</v>
-      </c>
-      <c r="Q35">
-        <v>867</v>
-      </c>
-      <c r="R35">
-        <v>296</v>
-      </c>
-      <c r="S35">
-        <v>66</v>
-      </c>
       <c r="T35">
-        <v>519</v>
+        <v>47</v>
       </c>
       <c r="U35">
-        <v>787</v>
+        <v>144</v>
       </c>
       <c r="V35">
-        <v>6289</v>
+        <v>824</v>
       </c>
       <c r="W35">
-        <v>0.421</v>
+        <v>0.428</v>
       </c>
       <c r="X35">
-        <v>0.355</v>
+        <v>0.363</v>
       </c>
       <c r="Y35">
-        <v>0.8149999999999999</v>
+        <v>0.828</v>
       </c>
       <c r="Z35">
-        <v>26.5</v>
+        <v>23.1</v>
       </c>
       <c r="AA35">
-        <v>13.5</v>
+        <v>10.2</v>
       </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" t="s">
         <v>168</v>
@@ -4195,76 +4177,76 @@
         <v>22</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>226</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
         <v>7</v>
       </c>
-      <c r="G37">
-        <v>359</v>
-      </c>
-      <c r="H37">
-        <v>7904</v>
-      </c>
-      <c r="I37">
-        <v>723</v>
-      </c>
-      <c r="J37">
-        <v>1827</v>
-      </c>
-      <c r="K37">
-        <v>288</v>
-      </c>
       <c r="L37">
-        <v>853</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="N37">
-        <v>450</v>
+        <v>7</v>
       </c>
       <c r="O37">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="P37">
-        <v>1151</v>
+        <v>41</v>
       </c>
       <c r="Q37">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="R37">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="U37">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="V37">
-        <v>2094</v>
+        <v>47</v>
       </c>
       <c r="W37">
-        <v>0.396</v>
+        <v>0.425</v>
       </c>
       <c r="X37">
-        <v>0.338</v>
+        <v>0.304</v>
       </c>
       <c r="Y37">
-        <v>0.8</v>
+        <v>0.857</v>
       </c>
       <c r="Z37">
-        <v>22</v>
+        <v>8.1</v>
       </c>
       <c r="AA37">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB37">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC37">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD37" t="s">
         <v>168</v>
@@ -4287,19 +4269,19 @@
         <v>24</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
       <c r="H38">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4308,11 +4290,11 @@
         <v>2</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="N38">
-        <v>4</v>
-      </c>
       <c r="O38">
         <v>0</v>
       </c>
@@ -4320,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -4329,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -4347,16 +4329,16 @@
         <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AA38">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD38" t="s">
         <v>168</v>
@@ -4379,76 +4361,76 @@
         <v>24</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <v>655</v>
+      </c>
+      <c r="I39">
+        <v>67</v>
+      </c>
+      <c r="J39">
+        <v>177</v>
+      </c>
+      <c r="K39">
+        <v>32</v>
+      </c>
+      <c r="L39">
+        <v>89</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>16</v>
+      </c>
+      <c r="O39">
+        <v>35</v>
+      </c>
+      <c r="P39">
+        <v>132</v>
+      </c>
+      <c r="Q39">
+        <v>23</v>
+      </c>
+      <c r="R39">
+        <v>16</v>
+      </c>
+      <c r="S39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>98</v>
-      </c>
-      <c r="H39">
-        <v>1397</v>
-      </c>
-      <c r="I39">
-        <v>146</v>
-      </c>
-      <c r="J39">
-        <v>349</v>
-      </c>
-      <c r="K39">
-        <v>48</v>
-      </c>
-      <c r="L39">
-        <v>140</v>
-      </c>
-      <c r="M39">
-        <v>39</v>
-      </c>
-      <c r="N39">
-        <v>45</v>
-      </c>
-      <c r="O39">
-        <v>66</v>
-      </c>
-      <c r="P39">
-        <v>266</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
-      </c>
-      <c r="R39">
-        <v>32</v>
-      </c>
-      <c r="S39">
-        <v>11</v>
-      </c>
       <c r="T39">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="U39">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="V39">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="W39">
-        <v>0.418</v>
+        <v>0.379</v>
       </c>
       <c r="X39">
-        <v>0.343</v>
+        <v>0.36</v>
       </c>
       <c r="Y39">
-        <v>0.867</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="Z39">
-        <v>14.3</v>
+        <v>12.4</v>
       </c>
       <c r="AA39">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB39">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC39">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD39" t="s">
         <v>168</v>
@@ -4471,76 +4453,76 @@
         <v>20</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>156</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>35</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>16</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="G40">
-        <v>95</v>
-      </c>
-      <c r="H40">
-        <v>1110</v>
-      </c>
-      <c r="I40">
-        <v>96</v>
-      </c>
-      <c r="J40">
-        <v>243</v>
-      </c>
-      <c r="K40">
-        <v>31</v>
-      </c>
-      <c r="L40">
-        <v>110</v>
-      </c>
-      <c r="M40">
-        <v>64</v>
-      </c>
-      <c r="N40">
-        <v>76</v>
-      </c>
-      <c r="O40">
-        <v>30</v>
-      </c>
-      <c r="P40">
-        <v>140</v>
-      </c>
-      <c r="Q40">
-        <v>87</v>
-      </c>
-      <c r="R40">
-        <v>32</v>
-      </c>
       <c r="S40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="U40">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="V40">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="W40">
-        <v>0.395</v>
+        <v>0.343</v>
       </c>
       <c r="X40">
-        <v>0.282</v>
+        <v>0.211</v>
       </c>
       <c r="Y40">
-        <v>0.842</v>
+        <v>0.9</v>
       </c>
       <c r="Z40">
-        <v>11.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="AB40">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC40">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD40" t="s">
         <v>168</v>
@@ -4563,76 +4545,76 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="H41">
-        <v>3125</v>
+        <v>1312</v>
       </c>
       <c r="I41">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="J41">
-        <v>857</v>
+        <v>371</v>
       </c>
       <c r="K41">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="L41">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="M41">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="N41">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="O41">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="P41">
-        <v>504</v>
+        <v>219</v>
       </c>
       <c r="Q41">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="R41">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="S41">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="T41">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="U41">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="V41">
-        <v>981</v>
+        <v>472</v>
       </c>
       <c r="W41">
-        <v>0.378</v>
+        <v>0.423</v>
       </c>
       <c r="X41">
-        <v>0.316</v>
+        <v>0.338</v>
       </c>
       <c r="Y41">
-        <v>0.797</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z41">
-        <v>19.2</v>
+        <v>22.2</v>
       </c>
       <c r="AA41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB41">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC41">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD41" t="s">
         <v>168</v>
@@ -4655,73 +4637,73 @@
         <v>23</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>21</v>
+      </c>
+      <c r="H42">
+        <v>92</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="Q42">
         <v>2</v>
       </c>
-      <c r="G42">
-        <v>37</v>
-      </c>
-      <c r="H42">
-        <v>164</v>
-      </c>
-      <c r="I42">
-        <v>13</v>
-      </c>
-      <c r="J42">
-        <v>25</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>9</v>
-      </c>
-      <c r="N42">
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42">
+        <v>17</v>
+      </c>
+      <c r="V42">
         <v>15</v>
       </c>
-      <c r="O42">
-        <v>17</v>
-      </c>
-      <c r="P42">
-        <v>38</v>
-      </c>
-      <c r="Q42">
-        <v>8</v>
-      </c>
-      <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="S42">
-        <v>5</v>
-      </c>
-      <c r="T42">
-        <v>15</v>
-      </c>
-      <c r="U42">
-        <v>30</v>
-      </c>
-      <c r="V42">
-        <v>35</v>
-      </c>
       <c r="W42">
-        <v>0.52</v>
+        <v>0.385</v>
       </c>
       <c r="Y42">
-        <v>0.6</v>
+        <v>0.455</v>
       </c>
       <c r="Z42">
         <v>4.4</v>
       </c>
       <c r="AA42">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AB42">
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD42" t="s">
         <v>168</v>
@@ -4744,76 +4726,76 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="H43">
-        <v>4880</v>
+        <v>489</v>
       </c>
       <c r="I43">
-        <v>545</v>
+        <v>52</v>
       </c>
       <c r="J43">
-        <v>1290</v>
+        <v>137</v>
       </c>
       <c r="K43">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="L43">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="N43">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="O43">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P43">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="Q43">
-        <v>737</v>
+        <v>71</v>
       </c>
       <c r="R43">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="S43">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="U43">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="V43">
-        <v>1399</v>
+        <v>132</v>
       </c>
       <c r="W43">
-        <v>0.422</v>
+        <v>0.38</v>
       </c>
       <c r="X43">
-        <v>0.336</v>
+        <v>0.316</v>
       </c>
       <c r="Y43">
-        <v>0.777</v>
+        <v>0.64</v>
       </c>
       <c r="Z43">
-        <v>19.1</v>
+        <v>10.2</v>
       </c>
       <c r="AA43">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB43">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AC43">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD43" t="s">
         <v>168</v>
@@ -4836,76 +4818,76 @@
         <v>21</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>33</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
         <v>2</v>
       </c>
-      <c r="G44">
-        <v>28</v>
-      </c>
-      <c r="H44">
-        <v>277</v>
-      </c>
-      <c r="I44">
-        <v>38</v>
-      </c>
-      <c r="J44">
-        <v>113</v>
-      </c>
-      <c r="K44">
-        <v>13</v>
-      </c>
-      <c r="L44">
-        <v>35</v>
-      </c>
-      <c r="M44">
-        <v>20</v>
-      </c>
-      <c r="N44">
-        <v>26</v>
-      </c>
-      <c r="O44">
-        <v>16</v>
-      </c>
-      <c r="P44">
-        <v>38</v>
-      </c>
       <c r="Q44">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="W44">
-        <v>0.336</v>
+        <v>0.353</v>
       </c>
       <c r="X44">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="Y44">
-        <v>0.769</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>9.9</v>
+        <v>3</v>
       </c>
       <c r="AA44">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB44">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC44">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD44" t="s">
         <v>168</v>
@@ -4928,76 +4910,73 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="H45">
-        <v>9095</v>
+        <v>362</v>
       </c>
       <c r="I45">
-        <v>1408</v>
+        <v>33</v>
       </c>
       <c r="J45">
-        <v>2846</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>773</v>
+        <v>20</v>
       </c>
       <c r="N45">
-        <v>1120</v>
+        <v>31</v>
       </c>
       <c r="O45">
-        <v>943</v>
+        <v>39</v>
       </c>
       <c r="P45">
-        <v>2893</v>
+        <v>99</v>
       </c>
       <c r="Q45">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="R45">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="S45">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="T45">
-        <v>572</v>
+        <v>26</v>
       </c>
       <c r="U45">
-        <v>1225</v>
+        <v>68</v>
       </c>
       <c r="V45">
-        <v>3683</v>
+        <v>86</v>
       </c>
       <c r="W45">
-        <v>0.495</v>
-      </c>
-      <c r="X45">
-        <v>0.33</v>
+        <v>0.423</v>
       </c>
       <c r="Y45">
-        <v>0.6899999999999999</v>
+        <v>0.645</v>
       </c>
       <c r="Z45">
-        <v>19.7</v>
+        <v>8.6</v>
       </c>
       <c r="AA45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB45">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC45">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AD45" t="s">
         <v>168</v>
@@ -5020,76 +4999,76 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>2808</v>
+        <v>897</v>
       </c>
       <c r="I46">
-        <v>374</v>
+        <v>113</v>
       </c>
       <c r="J46">
-        <v>916</v>
+        <v>300</v>
       </c>
       <c r="K46">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="L46">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="O46">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="P46">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Q46">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="R46">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="S46">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="T46">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="U46">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="V46">
-        <v>920</v>
+        <v>280</v>
       </c>
       <c r="W46">
-        <v>0.408</v>
+        <v>0.377</v>
       </c>
       <c r="X46">
-        <v>0.335</v>
+        <v>0.373</v>
       </c>
       <c r="Y46">
-        <v>0.711</v>
+        <v>0.744</v>
       </c>
       <c r="Z46">
-        <v>18.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA46">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC46">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD46" t="s">
         <v>168</v>
@@ -5112,76 +5091,76 @@
         <v>22</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <v>476</v>
+      </c>
+      <c r="I47">
+        <v>74</v>
+      </c>
+      <c r="J47">
+        <v>178</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+      <c r="L47">
+        <v>80</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>34</v>
+      </c>
+      <c r="O47">
         <v>7</v>
       </c>
-      <c r="G47">
-        <v>474</v>
-      </c>
-      <c r="H47">
-        <v>14598</v>
-      </c>
-      <c r="I47">
-        <v>3367</v>
-      </c>
-      <c r="J47">
-        <v>7396</v>
-      </c>
-      <c r="K47">
-        <v>1000</v>
-      </c>
-      <c r="L47">
-        <v>2515</v>
-      </c>
-      <c r="M47">
-        <v>1022</v>
-      </c>
-      <c r="N47">
-        <v>1235</v>
-      </c>
-      <c r="O47">
-        <v>285</v>
-      </c>
       <c r="P47">
-        <v>1547</v>
+        <v>48</v>
       </c>
       <c r="Q47">
-        <v>1470</v>
+        <v>27</v>
       </c>
       <c r="R47">
-        <v>406</v>
+        <v>14</v>
       </c>
       <c r="S47">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>826</v>
+        <v>35</v>
       </c>
       <c r="U47">
-        <v>1025</v>
+        <v>53</v>
       </c>
       <c r="V47">
-        <v>8756</v>
+        <v>201</v>
       </c>
       <c r="W47">
-        <v>0.455</v>
+        <v>0.416</v>
       </c>
       <c r="X47">
-        <v>0.398</v>
+        <v>0.375</v>
       </c>
       <c r="Y47">
-        <v>0.828</v>
+        <v>0.676</v>
       </c>
       <c r="Z47">
-        <v>30.8</v>
+        <v>12.5</v>
       </c>
       <c r="AA47">
-        <v>18.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB47">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="AC47">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD47" t="s">
         <v>168</v>
@@ -5204,76 +5183,76 @@
         <v>20</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="H48">
-        <v>10176</v>
+        <v>2187</v>
       </c>
       <c r="I48">
-        <v>1388</v>
+        <v>255</v>
       </c>
       <c r="J48">
-        <v>3295</v>
+        <v>679</v>
       </c>
       <c r="K48">
-        <v>597</v>
+        <v>95</v>
       </c>
       <c r="L48">
-        <v>1637</v>
+        <v>297</v>
       </c>
       <c r="M48">
-        <v>498</v>
+        <v>115</v>
       </c>
       <c r="N48">
-        <v>639</v>
+        <v>143</v>
       </c>
       <c r="O48">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="P48">
-        <v>1048</v>
+        <v>235</v>
       </c>
       <c r="Q48">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="R48">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="S48">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="T48">
-        <v>507</v>
+        <v>96</v>
       </c>
       <c r="U48">
-        <v>965</v>
+        <v>201</v>
       </c>
       <c r="V48">
-        <v>3871</v>
+        <v>720</v>
       </c>
       <c r="W48">
-        <v>0.421</v>
+        <v>0.376</v>
       </c>
       <c r="X48">
-        <v>0.365</v>
+        <v>0.32</v>
       </c>
       <c r="Y48">
-        <v>0.779</v>
+        <v>0.804</v>
       </c>
       <c r="Z48">
-        <v>23.6</v>
+        <v>26.7</v>
       </c>
       <c r="AA48">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB48">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AC48">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="s">
         <v>168</v>
@@ -5296,25 +5275,25 @@
         <v>25</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="I49">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J49">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K49">
         <v>5</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>8</v>
@@ -5326,46 +5305,46 @@
         <v>5</v>
       </c>
       <c r="P49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q49">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="R49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V49">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="W49">
-        <v>0.311</v>
+        <v>0.349</v>
       </c>
       <c r="X49">
-        <v>0.217</v>
+        <v>0.25</v>
       </c>
       <c r="Y49">
         <v>0.667</v>
       </c>
       <c r="Z49">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA49">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC49">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD49" t="s">
         <v>168</v>
@@ -5569,76 +5548,76 @@
         <v>21</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>4772</v>
+        <v>290</v>
       </c>
       <c r="I52">
-        <v>940</v>
+        <v>57</v>
       </c>
       <c r="J52">
-        <v>1988</v>
+        <v>124</v>
       </c>
       <c r="K52">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="M52">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="N52">
-        <v>667</v>
+        <v>40</v>
       </c>
       <c r="O52">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="P52">
-        <v>770</v>
+        <v>53</v>
       </c>
       <c r="Q52">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="R52">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>16</v>
+      </c>
+      <c r="U52">
         <v>24</v>
       </c>
-      <c r="T52">
-        <v>183</v>
-      </c>
-      <c r="U52">
-        <v>283</v>
-      </c>
       <c r="V52">
-        <v>2504</v>
+        <v>143</v>
       </c>
       <c r="W52">
-        <v>0.473</v>
+        <v>0.46</v>
       </c>
       <c r="X52">
-        <v>0.319</v>
+        <v>0.273</v>
       </c>
       <c r="Y52">
-        <v>0.751</v>
+        <v>0.65</v>
       </c>
       <c r="Z52">
-        <v>17.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA52">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="AB52">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC52">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD52" t="s">
         <v>168</v>
@@ -5750,19 +5729,19 @@
         <v>24</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
+        <v>51</v>
+      </c>
+      <c r="H54">
+        <v>373</v>
+      </c>
+      <c r="I54">
         <v>56</v>
       </c>
-      <c r="H54">
-        <v>391</v>
-      </c>
-      <c r="I54">
-        <v>58</v>
-      </c>
       <c r="J54">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5771,55 +5750,55 @@
         <v>12</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P54">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U54">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V54">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="W54">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="X54">
         <v>0.417</v>
       </c>
       <c r="Y54">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="Z54">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AA54">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC54">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="s">
         <v>168</v>
@@ -5842,76 +5821,76 @@
         <v>22</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>215</v>
+      </c>
+      <c r="I55">
+        <v>31</v>
+      </c>
+      <c r="J55">
+        <v>73</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>14</v>
+      </c>
+      <c r="O55">
+        <v>17</v>
+      </c>
+      <c r="P55">
+        <v>52</v>
+      </c>
+      <c r="Q55">
         <v>7</v>
       </c>
-      <c r="G55">
-        <v>348</v>
-      </c>
-      <c r="H55">
-        <v>5377</v>
-      </c>
-      <c r="I55">
-        <v>712</v>
-      </c>
-      <c r="J55">
-        <v>1545</v>
-      </c>
-      <c r="K55">
-        <v>261</v>
-      </c>
-      <c r="L55">
-        <v>717</v>
-      </c>
-      <c r="M55">
-        <v>261</v>
-      </c>
-      <c r="N55">
-        <v>311</v>
-      </c>
-      <c r="O55">
-        <v>309</v>
-      </c>
-      <c r="P55">
-        <v>1096</v>
-      </c>
-      <c r="Q55">
-        <v>322</v>
-      </c>
       <c r="R55">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="T55">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="U55">
-        <v>511</v>
+        <v>29</v>
       </c>
       <c r="V55">
-        <v>1946</v>
+        <v>76</v>
       </c>
       <c r="W55">
-        <v>0.461</v>
+        <v>0.425</v>
       </c>
       <c r="X55">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.839</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <v>15.5</v>
+        <v>10.8</v>
       </c>
       <c r="AA55">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB55">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AC55">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD55" t="s">
         <v>168</v>
@@ -6026,76 +6005,76 @@
         <v>23</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H57">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="I57">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J57">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q57">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S57">
         <v>2</v>
       </c>
       <c r="T57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U57">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="V57">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="W57">
-        <v>0.338</v>
+        <v>0.326</v>
       </c>
       <c r="X57">
         <v>0.32</v>
       </c>
       <c r="Y57">
-        <v>0.769</v>
+        <v>0.667</v>
       </c>
       <c r="Z57">
-        <v>9.5</v>
+        <v>12.7</v>
       </c>
       <c r="AA57">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB57">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AC57">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD57" t="s">
         <v>168</v>
@@ -6118,76 +6097,76 @@
         <v>21</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="H58">
-        <v>13697</v>
+        <v>2487</v>
       </c>
       <c r="I58">
-        <v>2654</v>
+        <v>392</v>
       </c>
       <c r="J58">
-        <v>6015</v>
+        <v>936</v>
       </c>
       <c r="K58">
-        <v>639</v>
+        <v>74</v>
       </c>
       <c r="L58">
-        <v>1827</v>
+        <v>226</v>
       </c>
       <c r="M58">
-        <v>1260</v>
+        <v>248</v>
       </c>
       <c r="N58">
-        <v>1589</v>
+        <v>318</v>
       </c>
       <c r="O58">
+        <v>43</v>
+      </c>
+      <c r="P58">
+        <v>329</v>
+      </c>
+      <c r="Q58">
+        <v>327</v>
+      </c>
+      <c r="R58">
+        <v>129</v>
+      </c>
+      <c r="S58">
+        <v>37</v>
+      </c>
+      <c r="T58">
         <v>256</v>
       </c>
-      <c r="P58">
-        <v>1900</v>
-      </c>
-      <c r="Q58">
-        <v>1628</v>
-      </c>
-      <c r="R58">
-        <v>691</v>
-      </c>
-      <c r="S58">
-        <v>202</v>
-      </c>
-      <c r="T58">
-        <v>1061</v>
-      </c>
       <c r="U58">
-        <v>994</v>
+        <v>210</v>
       </c>
       <c r="V58">
-        <v>7207</v>
+        <v>1106</v>
       </c>
       <c r="W58">
-        <v>0.441</v>
+        <v>0.419</v>
       </c>
       <c r="X58">
-        <v>0.35</v>
+        <v>0.327</v>
       </c>
       <c r="Y58">
-        <v>0.793</v>
+        <v>0.78</v>
       </c>
       <c r="Z58">
-        <v>33</v>
+        <v>31.1</v>
       </c>
       <c r="AA58">
-        <v>17.4</v>
+        <v>13.8</v>
       </c>
       <c r="AB58">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AC58">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD58" t="s">
         <v>168</v>
@@ -6210,76 +6189,76 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>492</v>
+        <v>70</v>
       </c>
       <c r="H59">
-        <v>10436</v>
+        <v>1400</v>
       </c>
       <c r="I59">
-        <v>1726</v>
+        <v>234</v>
       </c>
       <c r="J59">
-        <v>3611</v>
+        <v>502</v>
       </c>
       <c r="K59">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="L59">
-        <v>1475</v>
+        <v>114</v>
       </c>
       <c r="M59">
-        <v>734</v>
+        <v>99</v>
       </c>
       <c r="N59">
-        <v>950</v>
+        <v>122</v>
       </c>
       <c r="O59">
-        <v>575</v>
+        <v>140</v>
       </c>
       <c r="P59">
-        <v>2375</v>
+        <v>365</v>
       </c>
       <c r="Q59">
-        <v>915</v>
+        <v>109</v>
       </c>
       <c r="R59">
-        <v>347</v>
+        <v>35</v>
       </c>
       <c r="S59">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="T59">
-        <v>698</v>
+        <v>106</v>
       </c>
       <c r="U59">
-        <v>1359</v>
+        <v>227</v>
       </c>
       <c r="V59">
-        <v>4739</v>
+        <v>607</v>
       </c>
       <c r="W59">
-        <v>0.478</v>
+        <v>0.466</v>
       </c>
       <c r="X59">
-        <v>0.375</v>
+        <v>0.351</v>
       </c>
       <c r="Y59">
-        <v>0.773</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z59">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="AA59">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB59">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AC59">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD59" t="s">
         <v>168</v>
@@ -6302,73 +6281,73 @@
         <v>26</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+      <c r="Q60">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>19</v>
-      </c>
-      <c r="H60">
-        <v>126</v>
-      </c>
-      <c r="I60">
-        <v>15</v>
-      </c>
-      <c r="J60">
-        <v>23</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>10</v>
-      </c>
-      <c r="O60">
-        <v>11</v>
-      </c>
-      <c r="P60">
-        <v>35</v>
-      </c>
-      <c r="Q60">
-        <v>9</v>
-      </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="W60">
-        <v>0.652</v>
+        <v>0.2</v>
       </c>
       <c r="Y60">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z60">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AA60">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AB60">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC60">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD60" t="s">
         <v>168</v>
@@ -6391,76 +6370,76 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>524</v>
+        <v>70</v>
       </c>
       <c r="H61">
-        <v>11320</v>
+        <v>1275</v>
       </c>
       <c r="I61">
-        <v>1716</v>
+        <v>199</v>
       </c>
       <c r="J61">
-        <v>2989</v>
+        <v>302</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>935</v>
+        <v>122</v>
       </c>
       <c r="N61">
-        <v>1662</v>
+        <v>195</v>
       </c>
       <c r="O61">
-        <v>1031</v>
+        <v>99</v>
       </c>
       <c r="P61">
-        <v>3259</v>
+        <v>308</v>
       </c>
       <c r="Q61">
-        <v>1154</v>
+        <v>60</v>
       </c>
       <c r="R61">
-        <v>395</v>
+        <v>49</v>
       </c>
       <c r="S61">
-        <v>485</v>
+        <v>55</v>
       </c>
       <c r="T61">
-        <v>772</v>
+        <v>77</v>
       </c>
       <c r="U61">
-        <v>1418</v>
+        <v>171</v>
       </c>
       <c r="V61">
-        <v>4369</v>
+        <v>520</v>
       </c>
       <c r="W61">
-        <v>0.574</v>
+        <v>0.659</v>
       </c>
       <c r="X61">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.5629999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="Z61">
-        <v>21.6</v>
+        <v>18.2</v>
       </c>
       <c r="AA61">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AB61">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="AC61">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD61" t="s">
         <v>168</v>
@@ -6483,76 +6462,76 @@
         <v>20</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>413</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>11078</v>
+        <v>319</v>
       </c>
       <c r="I62">
-        <v>1768</v>
+        <v>33</v>
       </c>
       <c r="J62">
-        <v>3670</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>551</v>
+        <v>4</v>
       </c>
       <c r="L62">
-        <v>1364</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>463</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="O62">
-        <v>476</v>
+        <v>21</v>
       </c>
       <c r="P62">
-        <v>2037</v>
+        <v>57</v>
       </c>
       <c r="Q62">
-        <v>618</v>
+        <v>10</v>
       </c>
       <c r="R62">
-        <v>486</v>
+        <v>8</v>
       </c>
       <c r="S62">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="U62">
-        <v>769</v>
+        <v>26</v>
       </c>
       <c r="V62">
-        <v>4550</v>
+        <v>78</v>
       </c>
       <c r="W62">
-        <v>0.482</v>
+        <v>0.363</v>
       </c>
       <c r="X62">
-        <v>0.404</v>
+        <v>0.19</v>
       </c>
       <c r="Y62">
-        <v>0.789</v>
+        <v>0.667</v>
       </c>
       <c r="Z62">
-        <v>26.8</v>
+        <v>8.6</v>
       </c>
       <c r="AA62">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="AB62">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="AC62">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD62" t="s">
         <v>168</v>
@@ -6575,76 +6554,76 @@
         <v>22</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="H63">
-        <v>2015</v>
+        <v>1132</v>
       </c>
       <c r="I63">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="J63">
-        <v>505</v>
+        <v>253</v>
       </c>
       <c r="K63">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L63">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="M63">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N63">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="O63">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P63">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="Q63">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="R63">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="S63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T63">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="U63">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="V63">
-        <v>467</v>
+        <v>213</v>
       </c>
       <c r="W63">
-        <v>0.341</v>
+        <v>0.308</v>
       </c>
       <c r="X63">
-        <v>0.254</v>
+        <v>0.264</v>
       </c>
       <c r="Y63">
-        <v>0.63</v>
+        <v>0.644</v>
       </c>
       <c r="Z63">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="AA63">
+        <v>2.8</v>
+      </c>
+      <c r="AB63">
+        <v>1.4</v>
+      </c>
+      <c r="AC63">
         <v>3.2</v>
-      </c>
-      <c r="AB63">
-        <v>1.5</v>
-      </c>
-      <c r="AC63">
-        <v>2.9</v>
       </c>
       <c r="AD63" t="s">
         <v>168</v>
@@ -6667,19 +6646,19 @@
         <v>26</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H64">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I64">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J64">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6688,52 +6667,52 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N64">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O64">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P64">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q64">
         <v>23</v>
       </c>
       <c r="R64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S64">
         <v>13</v>
       </c>
       <c r="T64">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U64">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="V64">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="W64">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Y64">
-        <v>0.825</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z64">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA64">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB64">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC64">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD64" t="s">
         <v>168</v>
@@ -6756,40 +6735,40 @@
         <v>23</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H65">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="I65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J65">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R65">
         <v>6</v>
@@ -6798,31 +6777,31 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U65">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="V65">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="W65">
-        <v>0.269</v>
+        <v>0.297</v>
       </c>
       <c r="X65">
-        <v>0.25</v>
+        <v>0.294</v>
       </c>
       <c r="Y65">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="Z65">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="AA65">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AB65">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AC65">
         <v>0.6</v>
@@ -6848,76 +6827,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>6651</v>
+        <v>399</v>
       </c>
       <c r="I66">
-        <v>563</v>
+        <v>33</v>
       </c>
       <c r="J66">
-        <v>1168</v>
+        <v>68</v>
       </c>
       <c r="K66">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="N66">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="O66">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="P66">
-        <v>1188</v>
+        <v>94</v>
       </c>
       <c r="Q66">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="R66">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="S66">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="T66">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="U66">
-        <v>641</v>
+        <v>74</v>
       </c>
       <c r="V66">
-        <v>1356</v>
+        <v>75</v>
       </c>
       <c r="W66">
-        <v>0.482</v>
+        <v>0.485</v>
       </c>
       <c r="X66">
-        <v>0.257</v>
+        <v>0.154</v>
       </c>
       <c r="Y66">
-        <v>0.467</v>
+        <v>0.7</v>
       </c>
       <c r="Z66">
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="AA66">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AB66">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="AC66">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD66" t="s">
         <v>168</v>
@@ -6940,76 +6919,76 @@
         <v>20</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>494</v>
+        <v>49</v>
       </c>
       <c r="H67">
-        <v>12607</v>
+        <v>641</v>
       </c>
       <c r="I67">
-        <v>2632</v>
+        <v>72</v>
       </c>
       <c r="J67">
-        <v>6043</v>
+        <v>188</v>
       </c>
       <c r="K67">
-        <v>561</v>
+        <v>10</v>
       </c>
       <c r="L67">
-        <v>1669</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>1143</v>
+        <v>29</v>
       </c>
       <c r="N67">
-        <v>1381</v>
+        <v>43</v>
       </c>
       <c r="O67">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1401</v>
+        <v>60</v>
       </c>
       <c r="Q67">
-        <v>2254</v>
+        <v>93</v>
       </c>
       <c r="R67">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
         <v>61</v>
       </c>
-      <c r="T67">
-        <v>1166</v>
-      </c>
       <c r="U67">
-        <v>942</v>
+        <v>54</v>
       </c>
       <c r="V67">
-        <v>6968</v>
+        <v>183</v>
       </c>
       <c r="W67">
-        <v>0.436</v>
+        <v>0.383</v>
       </c>
       <c r="X67">
-        <v>0.336</v>
+        <v>0.238</v>
       </c>
       <c r="Y67">
-        <v>0.828</v>
+        <v>0.674</v>
       </c>
       <c r="Z67">
-        <v>25.5</v>
+        <v>13.1</v>
       </c>
       <c r="AA67">
-        <v>14.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB67">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC67">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD67" t="s">
         <v>168</v>
@@ -7207,76 +7186,76 @@
         <v>22</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="H70">
-        <v>11278</v>
+        <v>1231</v>
       </c>
       <c r="I70">
-        <v>1178</v>
+        <v>129</v>
       </c>
       <c r="J70">
-        <v>2755</v>
+        <v>336</v>
       </c>
       <c r="K70">
-        <v>621</v>
+        <v>57</v>
       </c>
       <c r="L70">
-        <v>1611</v>
+        <v>178</v>
       </c>
       <c r="M70">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="O70">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="P70">
-        <v>1156</v>
+        <v>124</v>
       </c>
       <c r="Q70">
-        <v>582</v>
+        <v>68</v>
       </c>
       <c r="R70">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="S70">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="T70">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="U70">
-        <v>701</v>
+        <v>84</v>
       </c>
       <c r="V70">
-        <v>3236</v>
+        <v>346</v>
       </c>
       <c r="W70">
-        <v>0.428</v>
+        <v>0.384</v>
       </c>
       <c r="X70">
-        <v>0.385</v>
+        <v>0.32</v>
       </c>
       <c r="Y70">
-        <v>0.838</v>
+        <v>0.756</v>
       </c>
       <c r="Z70">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="AA70">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB70">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AC70">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD70" t="s">
         <v>168</v>
@@ -7391,19 +7370,19 @@
         <v>23</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7427,34 +7406,34 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72">
         <v>0</v>
       </c>
       <c r="V72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W72">
-        <v>0.444</v>
+        <v>0.429</v>
       </c>
       <c r="Y72">
         <v>1</v>
       </c>
       <c r="Z72">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA72">
         <v>2.3</v>
       </c>
       <c r="AB72">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -7572,76 +7551,76 @@
         <v>22</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="H74">
-        <v>6424</v>
+        <v>1742</v>
       </c>
       <c r="I74">
-        <v>742</v>
+        <v>171</v>
       </c>
       <c r="J74">
-        <v>1795</v>
+        <v>372</v>
       </c>
       <c r="K74">
-        <v>363</v>
+        <v>67</v>
       </c>
       <c r="L74">
-        <v>941</v>
+        <v>167</v>
       </c>
       <c r="M74">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="N74">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="O74">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="P74">
-        <v>829</v>
+        <v>247</v>
       </c>
       <c r="Q74">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="R74">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="S74">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="T74">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="U74">
-        <v>541</v>
+        <v>144</v>
       </c>
       <c r="V74">
-        <v>2050</v>
+        <v>461</v>
       </c>
       <c r="W74">
-        <v>0.413</v>
+        <v>0.46</v>
       </c>
       <c r="X74">
-        <v>0.386</v>
+        <v>0.401</v>
       </c>
       <c r="Y74">
-        <v>0.707</v>
+        <v>0.712</v>
       </c>
       <c r="Z74">
-        <v>24.2</v>
+        <v>22.6</v>
       </c>
       <c r="AA74">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AB74">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC74">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD74" t="s">
         <v>168</v>
@@ -7842,76 +7821,76 @@
         <v>23</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="H77">
-        <v>2072</v>
+        <v>684</v>
       </c>
       <c r="I77">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="J77">
-        <v>474</v>
+        <v>129</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="N77">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="O77">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="P77">
-        <v>518</v>
+        <v>150</v>
       </c>
       <c r="Q77">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="R77">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="S77">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="T77">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="U77">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="V77">
-        <v>666</v>
+        <v>190</v>
       </c>
       <c r="W77">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="X77">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.716</v>
+        <v>0.712</v>
       </c>
       <c r="Z77">
-        <v>10.1</v>
+        <v>11.8</v>
       </c>
       <c r="AA77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD77" t="s">
         <v>168</v>
@@ -7934,76 +7913,76 @@
         <v>22</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H78">
-        <v>1575</v>
+        <v>1309</v>
       </c>
       <c r="I78">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J78">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="K78">
         <v>18</v>
       </c>
       <c r="L78">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M78">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N78">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O78">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P78">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="Q78">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="R78">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S78">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T78">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="U78">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="V78">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="W78">
-        <v>0.423</v>
+        <v>0.437</v>
       </c>
       <c r="X78">
-        <v>0.261</v>
+        <v>0.29</v>
       </c>
       <c r="Y78">
-        <v>0.635</v>
+        <v>0.656</v>
       </c>
       <c r="Z78">
-        <v>18.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA78">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB78">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AC78">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD78" t="s">
         <v>168</v>
@@ -8026,76 +8005,76 @@
         <v>21</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="H79">
-        <v>9613</v>
+        <v>1416</v>
       </c>
       <c r="I79">
-        <v>1354</v>
+        <v>172</v>
       </c>
       <c r="J79">
-        <v>2637</v>
+        <v>404</v>
       </c>
       <c r="K79">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>875</v>
+        <v>146</v>
       </c>
       <c r="N79">
-        <v>1197</v>
+        <v>200</v>
       </c>
       <c r="O79">
-        <v>825</v>
+        <v>118</v>
       </c>
       <c r="P79">
-        <v>2496</v>
+        <v>353</v>
       </c>
       <c r="Q79">
-        <v>583</v>
+        <v>92</v>
       </c>
       <c r="R79">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="S79">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="T79">
-        <v>452</v>
+        <v>87</v>
       </c>
       <c r="U79">
-        <v>1104</v>
+        <v>170</v>
       </c>
       <c r="V79">
-        <v>3611</v>
+        <v>490</v>
       </c>
       <c r="W79">
-        <v>0.513</v>
+        <v>0.426</v>
       </c>
       <c r="X79">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="Z79">
-        <v>22.9</v>
+        <v>17.3</v>
       </c>
       <c r="AA79">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="AB79">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="AC79">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD79" t="s">
         <v>168</v>
